--- a/nr-test-ip/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
+++ b/nr-test-ip/ig/StructureDefinition-mesures-fr-observation-heartrate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-12T14:49:45+00:00</t>
+    <t>2024-11-18T15:18:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
